--- a/src/textos.xlsx
+++ b/src/textos.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\vscode\usp\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97EB07E8-5C16-46FE-A563-56D54A067208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B96EB83-6704-4301-A852-6C7A7DB54FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{A59637FC-F8E6-4C48-ABB0-8DBEB2D34428}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13740" activeTab="1" xr2:uid="{A59637FC-F8E6-4C48-ABB0-8DBEB2D34428}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="frases" sheetId="2" r:id="rId2"/>
+    <sheet name="sentencas" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>Num fabulário ainda por encontrar será um dia lida esta fábula: A uma bordadora dum país longínquo foi encomendado pela sua rainha que bordasse, sobre seda ou cetim, entre folhas, uma rosa branca. A bordadora, como era muito jovem, foi procurar por toda a parte aquela rosa branca perfeitíssima, em cuja semelhança bordasse a sua. Mas sucedia que umas rosas eram menos belas do que lhe convinha, e que outras não eram brancas como deviam ser. Gastou dias sobre dias, chorosas horas, buscando a rosa que imitasse com seda, e, como nos países longínquos nunca deixa de haver pena de morte, ela sabia bem que, pelas leis dos contos como este, não podiam deixar de a matar se ela não bordasse a rosa branca. Por fim, não tendo melhor remédio, bordou de memória a rosa que lhe haviam exigido. Depois de a bordar foi compará-la com as rosas brancas que existem realmente nas roseiras. Sucedeu que todas as rosas brancas se pareciam exactamente com a rosa que ela bordara, que cada uma delas era exactamente aquela. Ela levou o trabalho ao palácio e é de supor que casasse com o príncipe. No fabulário, onde vem, esta fábula não traz moralidade. Mesmo porque, na idade de ouro, as fábulas não tinham moralidade nenhuma.</t>
   </si>
@@ -57,12 +59,131 @@
   </si>
   <si>
     <t>Então resolveu ir brincar com a Máquina pra ser também imperador dos filhos da mandioca. Mas as três cunhas deram muitas risadas e falaram que isso de deuses era gorda mentira antiga, que não tinha deus não e que com a máquina ninguém não brinca porque ela mata. A máquina não era deus não, nem possuía os distintivos femininos de que o herói gostava tanto. Era feita pelos homens. Se mexia com eletricidade com fogo com água com vento com fumo, os homens aproveitando as forças da natureza. Porém jacaré acreditou? nem o herói! Se levantou na cama e com um gesto, esse sim! bem guaçu de desdém, tó! batendo o antebraço esquerdo dentro do outro dobrado, mexeu com energia a munheca direita pras três cunhas e partiu. Nesse instante, falam, ele inventou o gesto famanado de ofensa: a pacova.</t>
+  </si>
+  <si>
+    <t>Muito além, nos confins inexplorados da região mais brega da Borda Ocidental desta Galáxia, há um pequeno sol amarelo e esquecido. Girando em torno deste sol, a uma distancia de cerca de 148 milhões de quilômetros, há um planetinha verde-azulado absolutamente insignificante, cujas formas de vida, descendentes de primatas, são tão extraordinariamente primitivas que ainda acham que relógios digitais são uma grande ideia.</t>
+  </si>
+  <si>
+    <t>Então resolveu ir brincar com a Máquina pra ser também imperador dos filhos da mandioca</t>
+  </si>
+  <si>
+    <t>wal</t>
+  </si>
+  <si>
+    <t>ttr</t>
+  </si>
+  <si>
+    <t>hlr</t>
+  </si>
+  <si>
+    <t>sal</t>
+  </si>
+  <si>
+    <t>sac</t>
+  </si>
+  <si>
+    <t>pal</t>
+  </si>
+  <si>
+    <t>Mas as três cunhas deram muitas risadas e falaram que isso de deuses era gorda mentira antiga, que não tinha deus não e que com a máquina ninguém não brinca porque ela mata</t>
+  </si>
+  <si>
+    <t>A máquina não era deus não, nem possuía os distintivos femininos de que o herói gostava tanto</t>
+  </si>
+  <si>
+    <t>Era feita pelos homens</t>
+  </si>
+  <si>
+    <t>Se mexia com eletricidade com fogo com água com vento com fumo, os homens aproveitando as forças da natureza</t>
+  </si>
+  <si>
+    <t>Porém jacaré acreditou</t>
+  </si>
+  <si>
+    <t>nem o herói</t>
+  </si>
+  <si>
+    <t>Se levantou na cama e com um gesto, esse sim</t>
+  </si>
+  <si>
+    <t>bem guaçu de desdém, tó</t>
+  </si>
+  <si>
+    <t>batendo o antebraço esquerdo dentro do outro dobrado, mexeu com energia a munheca direita pras três cunhas e partiu</t>
+  </si>
+  <si>
+    <t>Nesse instante, falam, ele inventou o gesto famanado de ofensa: a pacova</t>
+  </si>
+  <si>
+    <t>Muito além, nos confins inexplorados da região mais brega da Borda Ocidental desta Galáxia, há um pequeno sol amarelo e esquecido</t>
+  </si>
+  <si>
+    <t>Girando em torno deste sol, a uma distancia de cerca de 148 milhões de quilômetros, há um planetinha verde-azulado absolutamente insignificante, cujas formas de vida, descendentes de primatas, são tão extraordinariamente primitivas que ainda acham que relógios digitais são uma grande ideia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mas as três cunhas deram muitas risadas e falaram que isso de deuses era gorda mentira antiga</t>
+  </si>
+  <si>
+    <t>que não tinha deus não e que com a máquina ninguém não brinca porque ela mata</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A máquina não era deus não</t>
+  </si>
+  <si>
+    <t>nem possuía os distintivos femininos de que o herói gostava tanto</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Era feita pelos homens</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Se mexia com eletricidade com fogo com água com vento com fumo</t>
+  </si>
+  <si>
+    <t>os homens aproveitando as forças da natureza</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Porém jacaré acreditou</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nem o herói</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Se levantou na cama e com um gesto</t>
+  </si>
+  <si>
+    <t>esse sim</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bem guaçu de desdém</t>
+  </si>
+  <si>
+    <t>tó</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> batendo o antebraço esquerdo dentro do outro dobrado</t>
+  </si>
+  <si>
+    <t>mexeu com energia a munheca direita pras três cunhas e partiu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nesse instante</t>
+  </si>
+  <si>
+    <t>falam</t>
+  </si>
+  <si>
+    <t>ele inventou o gesto famanado de ofensa: a pacova</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="#,##0.0000000000000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00000000000000000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0000000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -98,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -106,6 +227,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08CE89AF-1B7E-4288-8368-E03794DD75E8}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,9 +594,512 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{760A30BA-2743-4A81-A484-2BF1A682B69B}">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <f>C1</f>
+        <v>87</v>
+      </c>
+      <c r="C1">
+        <f>LEN(D1)</f>
+        <v>87</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>B1+C2</f>
+        <v>259</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C11" si="0">LEN(D2)</f>
+        <v>172</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="4">
+        <v>4.50714285714285</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.69285714285714195</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H2" s="4">
+        <v>70.818181818181799</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1.8181818181818099</v>
+      </c>
+      <c r="J2" s="4">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B11" si="1">B2+C3</f>
+        <v>352</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="4">
+        <v>4.50714285714285</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.69285714285714195</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H3" s="4">
+        <v>70.818181818181799</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1.8181818181818099</v>
+      </c>
+      <c r="J3" s="4">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="1"/>
+        <v>374</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4">
+        <f>E2-E3</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" ref="F4:J4" si="2">F2-F3</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="1"/>
+        <v>482</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>504</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>515</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>559</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>582</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>697</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>769</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <f>AVERAGE(C1:C11)</f>
+        <v>69.909090909090907</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E13" s="4">
+        <f>E15-E14</f>
+        <v>1.5873015873020258E-2</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" ref="F13:J13" si="3">F15-F14</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D14" s="7"/>
+      <c r="E14">
+        <v>5.55555555555555</v>
+      </c>
+      <c r="F14">
+        <v>0.82539682539682502</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.69841269841269804</v>
+      </c>
+      <c r="H14" s="5">
+        <v>210</v>
+      </c>
+      <c r="I14">
+        <v>4.5</v>
+      </c>
+      <c r="J14">
+        <v>45.8888888888888</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f>LEN(D15)</f>
+        <v>129</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="4">
+        <v>5.5714285714285703</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.82539682539682502</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.69841269841269804</v>
+      </c>
+      <c r="H15" s="4">
+        <v>210</v>
+      </c>
+      <c r="I15" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="J15" s="4">
+        <v>45.8888888888888</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <f>LEN(D16)</f>
+        <v>290</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <f>AVERAGE(C15:C16)</f>
+        <v>209.5</v>
+      </c>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A519ED4B-FDAD-4364-951A-91D713294CFF}">
+  <dimension ref="A1:A19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="87.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>